--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H2">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I2">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J2">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>238.5539510824565</v>
+        <v>490.3371712303939</v>
       </c>
       <c r="R2">
-        <v>2146.985559742108</v>
+        <v>4413.034541073545</v>
       </c>
       <c r="S2">
-        <v>0.5409505719054297</v>
+        <v>0.5877492455486778</v>
       </c>
       <c r="T2">
-        <v>0.5409505719054296</v>
+        <v>0.5877492455486777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H3">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I3">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J3">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>35.55696631305244</v>
+        <v>69.36133400923556</v>
       </c>
       <c r="R3">
-        <v>320.012696817472</v>
+        <v>624.25200608312</v>
       </c>
       <c r="S3">
-        <v>0.08062981633709923</v>
+        <v>0.08314089595100857</v>
       </c>
       <c r="T3">
-        <v>0.0806298163370992</v>
+        <v>0.08314089595100856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H4">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I4">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J4">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>111.3256181644347</v>
+        <v>217.1640099243633</v>
       </c>
       <c r="R4">
-        <v>1001.930563479912</v>
+        <v>1954.47608931927</v>
       </c>
       <c r="S4">
-        <v>0.252444600227815</v>
+        <v>0.2603065614485039</v>
       </c>
       <c r="T4">
-        <v>0.2524446002278149</v>
+        <v>0.2603065614485039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>4.641424054278668</v>
+        <v>4.890651479494665</v>
       </c>
       <c r="R5">
-        <v>41.77281648850801</v>
+        <v>44.01586331545199</v>
       </c>
       <c r="S5">
-        <v>0.01052500277285204</v>
+        <v>0.005862245177337145</v>
       </c>
       <c r="T5">
-        <v>0.01052500277285203</v>
+        <v>0.005862245177337145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
-        <v>0.6918139816746667</v>
+        <v>0.6918139816746666</v>
       </c>
       <c r="R6">
         <v>6.226325835072</v>
       </c>
       <c r="S6">
-        <v>0.00156877371907258</v>
+        <v>0.0008292521343405505</v>
       </c>
       <c r="T6">
-        <v>0.001568773719072579</v>
+        <v>0.0008292521343405505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.302988</v>
       </c>
       <c r="I7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>2.166006472168001</v>
+        <v>2.166006472167999</v>
       </c>
       <c r="R7">
         <v>19.494058249512</v>
       </c>
       <c r="S7">
-        <v>0.004911687417263283</v>
+        <v>0.002596312791616037</v>
       </c>
       <c r="T7">
-        <v>0.004911687417263282</v>
+        <v>0.002596312791616037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.941521</v>
       </c>
       <c r="I8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>29.74184545687344</v>
+        <v>31.33887332541211</v>
       </c>
       <c r="R8">
-        <v>267.676609111861</v>
+        <v>282.049859928709</v>
       </c>
       <c r="S8">
-        <v>0.06744331098442993</v>
+        <v>0.03756476203331086</v>
       </c>
       <c r="T8">
-        <v>0.06744331098442992</v>
+        <v>0.03756476203331086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.941521</v>
       </c>
       <c r="I9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>4.433084391180444</v>
+        <v>4.433084391180445</v>
       </c>
       <c r="R9">
-        <v>39.89775952062399</v>
+        <v>39.897759520624</v>
       </c>
       <c r="S9">
-        <v>0.01005256683376079</v>
+        <v>0.00531377623244815</v>
       </c>
       <c r="T9">
-        <v>0.01005256683376078</v>
+        <v>0.005313776232448149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.941521</v>
       </c>
       <c r="I10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>13.87958286087267</v>
+        <v>13.87958286087266</v>
       </c>
       <c r="R10">
         <v>124.916245747854</v>
       </c>
       <c r="S10">
-        <v>0.03147366980227741</v>
+        <v>0.01663694868275694</v>
       </c>
       <c r="T10">
-        <v>0.03147366980227739</v>
+        <v>0.01663694868275694</v>
       </c>
     </row>
   </sheetData>
